--- a/data/pca/factorExposure/factorExposure_2010-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-05.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01666965664736885</v>
+        <v>-0.01670276526495343</v>
       </c>
       <c r="C2">
-        <v>-0.0001581842736644311</v>
+        <v>-0.0009264617175004309</v>
       </c>
       <c r="D2">
-        <v>-0.01218391794713007</v>
+        <v>-0.006725867430255143</v>
       </c>
       <c r="E2">
-        <v>0.01854798677889684</v>
+        <v>0.002079156925585273</v>
       </c>
       <c r="F2">
-        <v>0.03055453167314615</v>
+        <v>0.01223925234071647</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1199277669082148</v>
+        <v>-0.09508481995396902</v>
       </c>
       <c r="C4">
-        <v>0.09708401284175949</v>
+        <v>-0.01814124323967831</v>
       </c>
       <c r="D4">
-        <v>-0.004372345247421687</v>
+        <v>-0.07985402261978761</v>
       </c>
       <c r="E4">
-        <v>-0.1255536883637632</v>
+        <v>-0.02804363280270791</v>
       </c>
       <c r="F4">
-        <v>0.1115198348585344</v>
+        <v>-0.04008441389912777</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1250640933367927</v>
+        <v>-0.1516951953207542</v>
       </c>
       <c r="C6">
-        <v>0.06382705349952303</v>
+        <v>-0.02436934589356797</v>
       </c>
       <c r="D6">
-        <v>0.002389012336714776</v>
+        <v>0.02142022337554631</v>
       </c>
       <c r="E6">
-        <v>-0.05945447236098398</v>
+        <v>-0.01233591250469215</v>
       </c>
       <c r="F6">
-        <v>0.0435513015637472</v>
+        <v>-0.03970190198175142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07159838022643225</v>
+        <v>-0.06295608139551626</v>
       </c>
       <c r="C7">
-        <v>0.08813567585613895</v>
+        <v>-0.0005553227802508779</v>
       </c>
       <c r="D7">
-        <v>-0.006149405537960911</v>
+        <v>-0.0528124571693812</v>
       </c>
       <c r="E7">
-        <v>-0.01697749998152917</v>
+        <v>-0.0134654847383493</v>
       </c>
       <c r="F7">
-        <v>-0.003557610155491301</v>
+        <v>-0.05687181117035763</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04122934781338266</v>
+        <v>-0.0598648938141166</v>
       </c>
       <c r="C8">
-        <v>0.009714653713722918</v>
+        <v>0.0127441032106657</v>
       </c>
       <c r="D8">
-        <v>-0.01244838370772867</v>
+        <v>-0.02764599248194172</v>
       </c>
       <c r="E8">
-        <v>-0.05712184486655472</v>
+        <v>-0.01056512470185786</v>
       </c>
       <c r="F8">
-        <v>0.09815563803550635</v>
+        <v>0.02076578290584678</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08880423798097305</v>
+        <v>-0.07280624107065826</v>
       </c>
       <c r="C9">
-        <v>0.06602654246361872</v>
+        <v>-0.01472349900806891</v>
       </c>
       <c r="D9">
-        <v>0.01107899988703669</v>
+        <v>-0.07765665329179421</v>
       </c>
       <c r="E9">
-        <v>-0.09662316154093958</v>
+        <v>-0.02082727543939209</v>
       </c>
       <c r="F9">
-        <v>0.08639948543346671</v>
+        <v>-0.06132460000023019</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1314821540336562</v>
+        <v>-0.09150280923276427</v>
       </c>
       <c r="C10">
-        <v>-0.1820950873519879</v>
+        <v>-0.01341643594789915</v>
       </c>
       <c r="D10">
-        <v>-0.01424149689419412</v>
+        <v>0.1720281433018487</v>
       </c>
       <c r="E10">
-        <v>0.02905278997544681</v>
+        <v>0.03400561612631528</v>
       </c>
       <c r="F10">
-        <v>-0.05184676316353443</v>
+        <v>0.05020660074226697</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06673227754466177</v>
+        <v>-0.08866108578295173</v>
       </c>
       <c r="C11">
-        <v>0.0567514965928842</v>
+        <v>-0.01391469421759065</v>
       </c>
       <c r="D11">
-        <v>0.04359890826663677</v>
+        <v>-0.1089378361767657</v>
       </c>
       <c r="E11">
-        <v>-0.07422668742542704</v>
+        <v>-0.0405560851444015</v>
       </c>
       <c r="F11">
-        <v>0.06769591052724068</v>
+        <v>-0.02763040603585117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07689576995793482</v>
+        <v>-0.09392729760274021</v>
       </c>
       <c r="C12">
-        <v>0.06984925912986301</v>
+        <v>-0.01149239570530163</v>
       </c>
       <c r="D12">
-        <v>0.05713427276147739</v>
+        <v>-0.115727117626732</v>
       </c>
       <c r="E12">
-        <v>-0.1162721573706932</v>
+        <v>-0.03913547920313438</v>
       </c>
       <c r="F12">
-        <v>0.04631930061078033</v>
+        <v>-0.03026848639776025</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04077713792424757</v>
+        <v>-0.0440673855920819</v>
       </c>
       <c r="C13">
-        <v>0.04144395266222607</v>
+        <v>-0.004773157664711924</v>
       </c>
       <c r="D13">
-        <v>-0.02472127098537293</v>
+        <v>-0.04169219963261511</v>
       </c>
       <c r="E13">
-        <v>-0.03751689437919007</v>
+        <v>0.01392093693203314</v>
       </c>
       <c r="F13">
-        <v>0.03730574067187131</v>
+        <v>-0.02161784203901271</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04553093899768828</v>
+        <v>-0.02203709584237218</v>
       </c>
       <c r="C14">
-        <v>0.02848222075823422</v>
+        <v>-0.01505657933077741</v>
       </c>
       <c r="D14">
-        <v>0.000664182999590787</v>
+        <v>-0.02910162916663278</v>
       </c>
       <c r="E14">
-        <v>-0.03374354873525188</v>
+        <v>-0.01494058409167164</v>
       </c>
       <c r="F14">
-        <v>0.03941521934201104</v>
+        <v>-0.02709766318143464</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02641058071331619</v>
+        <v>-0.03228590782997235</v>
       </c>
       <c r="C15">
-        <v>0.01817907152809007</v>
+        <v>-0.006182186864416424</v>
       </c>
       <c r="D15">
-        <v>-0.07427920609693105</v>
+        <v>-0.04027481038196733</v>
       </c>
       <c r="E15">
-        <v>0.005337821836178935</v>
+        <v>-0.007164883420907828</v>
       </c>
       <c r="F15">
-        <v>0.03408114211350997</v>
+        <v>-0.03519255968998909</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08005759877908712</v>
+        <v>-0.07582744776042989</v>
       </c>
       <c r="C16">
-        <v>0.07466279081681398</v>
+        <v>-0.005481070578374676</v>
       </c>
       <c r="D16">
-        <v>0.04151319110888748</v>
+        <v>-0.1132655683180966</v>
       </c>
       <c r="E16">
-        <v>-0.0929919738773228</v>
+        <v>-0.05657617390235078</v>
       </c>
       <c r="F16">
-        <v>0.04385085757271773</v>
+        <v>-0.03563546737061273</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01673458576775244</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004103300138017373</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02354555177858383</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0108476735487802</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0283243501433394</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04510320066261532</v>
+        <v>-0.06145582920158359</v>
       </c>
       <c r="C20">
-        <v>0.02435384350436863</v>
+        <v>-0.003158467944977101</v>
       </c>
       <c r="D20">
-        <v>-0.03386460287627484</v>
+        <v>-0.06713615996070191</v>
       </c>
       <c r="E20">
-        <v>-0.07265362265215421</v>
+        <v>-0.04966434621528679</v>
       </c>
       <c r="F20">
-        <v>0.02951013837441415</v>
+        <v>-0.03195041630129936</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03654770917741656</v>
+        <v>-0.03719020642369905</v>
       </c>
       <c r="C21">
-        <v>0.02466090485348183</v>
+        <v>-0.007951356411848848</v>
       </c>
       <c r="D21">
-        <v>0.01849723887894679</v>
+        <v>-0.033240353731147</v>
       </c>
       <c r="E21">
-        <v>-0.05198481213876843</v>
+        <v>0.01293269282082797</v>
       </c>
       <c r="F21">
-        <v>0.03731192337184315</v>
+        <v>0.01734995842377842</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05540019061790112</v>
+        <v>-0.04290786649444731</v>
       </c>
       <c r="C22">
-        <v>0.02877498776049209</v>
+        <v>-0.001098362513729028</v>
       </c>
       <c r="D22">
-        <v>-0.6467697122077596</v>
+        <v>0.001675453726550623</v>
       </c>
       <c r="E22">
-        <v>-0.0579931574978288</v>
+        <v>-0.03428339239580331</v>
       </c>
       <c r="F22">
-        <v>-0.1143937430548455</v>
+        <v>0.02572139808934607</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05596424675346692</v>
+        <v>-0.04294529172421907</v>
       </c>
       <c r="C23">
-        <v>0.0300347422571643</v>
+        <v>-0.001121345877029607</v>
       </c>
       <c r="D23">
-        <v>-0.6489107340729032</v>
+        <v>0.001501254181619352</v>
       </c>
       <c r="E23">
-        <v>-0.06173590620803532</v>
+        <v>-0.03464688074818625</v>
       </c>
       <c r="F23">
-        <v>-0.1115917537688201</v>
+        <v>0.025146699502928</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0778091967646576</v>
+        <v>-0.08191904190973248</v>
       </c>
       <c r="C24">
-        <v>0.07006218933214661</v>
+        <v>-0.005563393320764829</v>
       </c>
       <c r="D24">
-        <v>0.03544202135331165</v>
+        <v>-0.1135126666537202</v>
       </c>
       <c r="E24">
-        <v>-0.09058214987291546</v>
+        <v>-0.04444727162932693</v>
       </c>
       <c r="F24">
-        <v>0.05215220060855676</v>
+        <v>-0.02815458557209019</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07647346572175606</v>
+        <v>-0.0865382860624145</v>
       </c>
       <c r="C25">
-        <v>0.0516294395491933</v>
+        <v>-0.007882304538224775</v>
       </c>
       <c r="D25">
-        <v>0.05641589920665817</v>
+        <v>-0.09859085270580907</v>
       </c>
       <c r="E25">
-        <v>-0.0957097679583844</v>
+        <v>-0.02591010055914006</v>
       </c>
       <c r="F25">
-        <v>0.05591070387937232</v>
+        <v>-0.03746812899233107</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04101326679089587</v>
+        <v>-0.05682800714491859</v>
       </c>
       <c r="C26">
-        <v>0.01451467508445899</v>
+        <v>-0.01550640054427577</v>
       </c>
       <c r="D26">
-        <v>-0.01365193305180326</v>
+        <v>-0.02971786925672494</v>
       </c>
       <c r="E26">
-        <v>-0.09384730690734293</v>
+        <v>-0.02389207597161496</v>
       </c>
       <c r="F26">
-        <v>-0.003071657396192453</v>
+        <v>-0.002153713113762007</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1554487450509437</v>
+        <v>-0.1378202696355973</v>
       </c>
       <c r="C28">
-        <v>-0.2745387591500274</v>
+        <v>-0.01063556130413175</v>
       </c>
       <c r="D28">
-        <v>0.00515894767813462</v>
+        <v>0.27502655203673</v>
       </c>
       <c r="E28">
-        <v>-0.01923098491376734</v>
+        <v>0.06585630713635009</v>
       </c>
       <c r="F28">
-        <v>0.008701344213612036</v>
+        <v>-0.04630874017459711</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03993353006403766</v>
+        <v>-0.02714902209004782</v>
       </c>
       <c r="C29">
-        <v>0.02407493558849668</v>
+        <v>-0.00926254669523021</v>
       </c>
       <c r="D29">
-        <v>0.004618165762328403</v>
+        <v>-0.02779139822262473</v>
       </c>
       <c r="E29">
-        <v>-0.03651129291165878</v>
+        <v>-0.007883364829941522</v>
       </c>
       <c r="F29">
-        <v>0.03612419083224895</v>
+        <v>0.006335604050918062</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08359371481693126</v>
+        <v>-0.06551945933858495</v>
       </c>
       <c r="C30">
-        <v>0.06043452926185131</v>
+        <v>-0.008010192157395015</v>
       </c>
       <c r="D30">
-        <v>0.01522596471557517</v>
+        <v>-0.07490145301110245</v>
       </c>
       <c r="E30">
-        <v>-0.2982140970502803</v>
+        <v>-0.02019468754269962</v>
       </c>
       <c r="F30">
-        <v>0.03155541082187958</v>
+        <v>-0.1238101301645301</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02807533689605226</v>
+        <v>-0.04827335404968104</v>
       </c>
       <c r="C31">
-        <v>0.05639885975961299</v>
+        <v>-0.01521528710214662</v>
       </c>
       <c r="D31">
-        <v>-0.005350956707618341</v>
+        <v>-0.02977523707836063</v>
       </c>
       <c r="E31">
-        <v>-0.02564234240732663</v>
+        <v>-0.02626698865598257</v>
       </c>
       <c r="F31">
-        <v>0.03140572838275257</v>
+        <v>0.002214365779814612</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05800766233323192</v>
+        <v>-0.04858731638874034</v>
       </c>
       <c r="C32">
-        <v>0.007587949842993808</v>
+        <v>-0.001209250115228984</v>
       </c>
       <c r="D32">
-        <v>0.03836147374588732</v>
+        <v>-0.02469958450833351</v>
       </c>
       <c r="E32">
-        <v>0.01810845946112905</v>
+        <v>-0.02415245770300639</v>
       </c>
       <c r="F32">
-        <v>0.09273034038894017</v>
+        <v>-0.005622330882025447</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09557593352386981</v>
+        <v>-0.09199136801326853</v>
       </c>
       <c r="C33">
-        <v>0.06942304863182472</v>
+        <v>-0.01086162972091145</v>
       </c>
       <c r="D33">
-        <v>0.02110724108550834</v>
+        <v>-0.08811657010145685</v>
       </c>
       <c r="E33">
-        <v>-0.0673618989389529</v>
+        <v>-0.04256704885438975</v>
       </c>
       <c r="F33">
-        <v>0.02288343958792506</v>
+        <v>-0.04329422184649823</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06713022914328626</v>
+        <v>-0.06912242688879036</v>
       </c>
       <c r="C34">
-        <v>0.05063481297354629</v>
+        <v>-0.01344847628864046</v>
       </c>
       <c r="D34">
-        <v>0.0485913176020409</v>
+        <v>-0.09264649727312681</v>
       </c>
       <c r="E34">
-        <v>-0.07743546683503609</v>
+        <v>-0.02715507903718956</v>
       </c>
       <c r="F34">
-        <v>0.05218803375048402</v>
+        <v>-0.0531842064237097</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01732630383502048</v>
+        <v>-0.02413896900617108</v>
       </c>
       <c r="C35">
-        <v>0.01386782536483151</v>
+        <v>-0.002707809246679484</v>
       </c>
       <c r="D35">
-        <v>-0.005670528598362347</v>
+        <v>-0.0103095283556267</v>
       </c>
       <c r="E35">
-        <v>-0.02147366773415924</v>
+        <v>-0.01173329458332859</v>
       </c>
       <c r="F35">
-        <v>0.01056955834106199</v>
+        <v>-0.01326247520816634</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0282415559778298</v>
+        <v>-0.02623983998404787</v>
       </c>
       <c r="C36">
-        <v>0.02015208881481668</v>
+        <v>-0.007092301818798445</v>
       </c>
       <c r="D36">
-        <v>-0.01763586722522067</v>
+        <v>-0.03845312178883779</v>
       </c>
       <c r="E36">
-        <v>-0.0822244941063444</v>
+        <v>-0.01614481751855355</v>
       </c>
       <c r="F36">
-        <v>0.03968369069014687</v>
+        <v>-0.01375147049862084</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02465276445834048</v>
+        <v>-0.003030275837254433</v>
       </c>
       <c r="C38">
-        <v>0.05518022154213423</v>
+        <v>-0.0005708301077620215</v>
       </c>
       <c r="D38">
-        <v>-0.0246412340909413</v>
+        <v>-0.003618623950498453</v>
       </c>
       <c r="E38">
-        <v>0.05187382288077986</v>
+        <v>-0.004420990828542861</v>
       </c>
       <c r="F38">
-        <v>-0.1261587719041028</v>
+        <v>0.003549828468197036</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1004067273200307</v>
+        <v>-0.1119607171801344</v>
       </c>
       <c r="C39">
-        <v>0.08244889970612866</v>
+        <v>-0.0197264807611293</v>
       </c>
       <c r="D39">
-        <v>0.1321064072332833</v>
+        <v>-0.1466288015380218</v>
       </c>
       <c r="E39">
-        <v>-0.1882024407752964</v>
+        <v>-0.04906745394875081</v>
       </c>
       <c r="F39">
-        <v>-0.022764030314863</v>
+        <v>-0.03915180933785153</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02354185087436716</v>
+        <v>-0.03731625460580636</v>
       </c>
       <c r="C40">
-        <v>0.05752108777820034</v>
+        <v>-0.007786017949467759</v>
       </c>
       <c r="D40">
-        <v>-0.02721684488374449</v>
+        <v>-0.02595615002534755</v>
       </c>
       <c r="E40">
-        <v>-0.01748195423554634</v>
+        <v>-0.001899877465122053</v>
       </c>
       <c r="F40">
-        <v>0.1047646924499653</v>
+        <v>0.01504536995232637</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02976183134799586</v>
+        <v>-0.02624740384252868</v>
       </c>
       <c r="C41">
-        <v>0.02432021552514906</v>
+        <v>-0.006731203276614266</v>
       </c>
       <c r="D41">
-        <v>0.02287606161133306</v>
+        <v>-0.01149050626300503</v>
       </c>
       <c r="E41">
-        <v>-0.01527837017262715</v>
+        <v>-0.01072600610914348</v>
       </c>
       <c r="F41">
-        <v>-0.01455411313925694</v>
+        <v>0.01196025643447864</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04521496210297737</v>
+        <v>-0.04309111177046474</v>
       </c>
       <c r="C43">
-        <v>0.0475589458834158</v>
+        <v>-0.007136710318506104</v>
       </c>
       <c r="D43">
-        <v>-0.01106191826573542</v>
+        <v>-0.02183752284296485</v>
       </c>
       <c r="E43">
-        <v>-0.04004191143911763</v>
+        <v>-0.02582713503377946</v>
       </c>
       <c r="F43">
-        <v>-0.0352654894182695</v>
+        <v>0.0114216018033837</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09818784676963489</v>
+        <v>-0.07379190112945865</v>
       </c>
       <c r="C44">
-        <v>0.08700156743533369</v>
+        <v>-0.02392652147171246</v>
       </c>
       <c r="D44">
-        <v>-0.0619795604236846</v>
+        <v>-0.09863121919013149</v>
       </c>
       <c r="E44">
-        <v>-0.08562610737406517</v>
+        <v>-0.06392754667326341</v>
       </c>
       <c r="F44">
-        <v>0.09683269463883555</v>
+        <v>-0.183314397718975</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0405885882660968</v>
+        <v>-0.02385236782367416</v>
       </c>
       <c r="C46">
-        <v>0.03644929064962363</v>
+        <v>-0.004282199118596648</v>
       </c>
       <c r="D46">
-        <v>-0.05323763103303331</v>
+        <v>-0.01216801995818738</v>
       </c>
       <c r="E46">
-        <v>-0.007450406430595385</v>
+        <v>-0.02263609619824975</v>
       </c>
       <c r="F46">
-        <v>0.03856634071141368</v>
+        <v>0.003470727477287989</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05491873768581382</v>
+        <v>-0.05300186612137337</v>
       </c>
       <c r="C47">
-        <v>0.04475764026920676</v>
+        <v>-0.003482978135907096</v>
       </c>
       <c r="D47">
-        <v>-0.001929589524021949</v>
+        <v>-0.01290882706497037</v>
       </c>
       <c r="E47">
-        <v>-0.02854871730259893</v>
+        <v>-0.02256231784915841</v>
       </c>
       <c r="F47">
-        <v>-0.01019899868492723</v>
+        <v>0.04785411928055845</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04698420636944375</v>
+        <v>-0.04807898531624269</v>
       </c>
       <c r="C48">
-        <v>0.01689316802304497</v>
+        <v>-0.003361592857363624</v>
       </c>
       <c r="D48">
-        <v>0.00785932847683728</v>
+        <v>-0.0431385842360357</v>
       </c>
       <c r="E48">
-        <v>-0.06667696301447726</v>
+        <v>0.008948744098649011</v>
       </c>
       <c r="F48">
-        <v>0.07806153714857003</v>
+        <v>-0.01946797872807573</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2356615975883816</v>
+        <v>-0.2072347773653903</v>
       </c>
       <c r="C49">
-        <v>0.06186996019012102</v>
+        <v>-0.01721843524273171</v>
       </c>
       <c r="D49">
-        <v>0.03834314966280798</v>
+        <v>0.004132855788181799</v>
       </c>
       <c r="E49">
-        <v>0.2478151498043561</v>
+        <v>-0.04208618609036844</v>
       </c>
       <c r="F49">
-        <v>-0.1652662640271541</v>
+        <v>-0.03345808286019307</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03536629546277355</v>
+        <v>-0.04856274496948068</v>
       </c>
       <c r="C50">
-        <v>0.04571841571317279</v>
+        <v>-0.01140852670649465</v>
       </c>
       <c r="D50">
-        <v>0.008964170703758991</v>
+        <v>-0.02800894150547667</v>
       </c>
       <c r="E50">
-        <v>-0.06527672316924882</v>
+        <v>-0.02833402000906312</v>
       </c>
       <c r="F50">
-        <v>0.01526446343478278</v>
+        <v>-0.006518460590138845</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03174905008614887</v>
+        <v>-0.003604482150161081</v>
       </c>
       <c r="C51">
-        <v>8.692009737520664e-06</v>
+        <v>-0.0008492669954560341</v>
       </c>
       <c r="D51">
-        <v>-0.0006606411846634011</v>
+        <v>0.001840167412962388</v>
       </c>
       <c r="E51">
-        <v>0.0519962786355897</v>
+        <v>-0.001480041540549055</v>
       </c>
       <c r="F51">
-        <v>-0.01984327968801619</v>
+        <v>-0.00435098594876914</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02157382468140351</v>
+        <v>-0.1408346824692101</v>
       </c>
       <c r="C52">
-        <v>0.008951031575305008</v>
+        <v>-0.012630975502856</v>
       </c>
       <c r="D52">
-        <v>0.0277592663350663</v>
+        <v>-0.05015093838191025</v>
       </c>
       <c r="E52">
-        <v>-0.006679300167733656</v>
+        <v>-0.01499070294538378</v>
       </c>
       <c r="F52">
-        <v>-0.01046380192998188</v>
+        <v>-0.02995934642419038</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1452722389486425</v>
+        <v>-0.1724445150747565</v>
       </c>
       <c r="C53">
-        <v>0.05718685841473631</v>
+        <v>-0.01533582319500231</v>
       </c>
       <c r="D53">
-        <v>-0.01214524133475849</v>
+        <v>-0.01804706541153457</v>
       </c>
       <c r="E53">
-        <v>0.03586100895580192</v>
+        <v>-0.0383490223009654</v>
       </c>
       <c r="F53">
-        <v>-0.1091804988777089</v>
+        <v>-0.05650882943002202</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.06312205117816061</v>
+        <v>-0.02210386300132893</v>
       </c>
       <c r="C54">
-        <v>0.03627302449746994</v>
+        <v>-0.01317411172056606</v>
       </c>
       <c r="D54">
-        <v>-0.01066371408900853</v>
+        <v>-0.02907987066108542</v>
       </c>
       <c r="E54">
-        <v>-0.09587681932243562</v>
+        <v>-0.01550559521566946</v>
       </c>
       <c r="F54">
-        <v>0.09933024882736793</v>
+        <v>-0.0004665781988174244</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08222853181964816</v>
+        <v>-0.1141678734256153</v>
       </c>
       <c r="C55">
-        <v>0.05036247271283161</v>
+        <v>-0.01432719615686672</v>
       </c>
       <c r="D55">
-        <v>0.03277330582617455</v>
+        <v>-0.01638659335619594</v>
       </c>
       <c r="E55">
-        <v>0.01145815506863065</v>
+        <v>-0.0298537369755588</v>
       </c>
       <c r="F55">
-        <v>-0.03019145412194893</v>
+        <v>-0.0462615593009353</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1394567818044222</v>
+        <v>-0.1772791184598779</v>
       </c>
       <c r="C56">
-        <v>0.0919708804189505</v>
+        <v>-0.01292497639532323</v>
       </c>
       <c r="D56">
-        <v>0.02002325267325034</v>
+        <v>-0.01516629756861649</v>
       </c>
       <c r="E56">
-        <v>0.01139107140263859</v>
+        <v>-0.04237143107653705</v>
       </c>
       <c r="F56">
-        <v>-0.06743899620748119</v>
+        <v>-0.02671782954521895</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0338705291534642</v>
+        <v>-0.0471348418801152</v>
       </c>
       <c r="C58">
-        <v>0.03130286766148407</v>
+        <v>-0.003615833125787144</v>
       </c>
       <c r="D58">
-        <v>-0.03250081182792768</v>
+        <v>-0.06198828646401996</v>
       </c>
       <c r="E58">
-        <v>-0.04131502070440459</v>
+        <v>-0.01393798904069602</v>
       </c>
       <c r="F58">
-        <v>-0.0007603755153820176</v>
+        <v>0.0437758542622563</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2152419079309318</v>
+        <v>-0.1702825180523562</v>
       </c>
       <c r="C59">
-        <v>-0.2407756548187742</v>
+        <v>-0.01262082061615622</v>
       </c>
       <c r="D59">
-        <v>0.04731465028563289</v>
+        <v>0.2313237728290146</v>
       </c>
       <c r="E59">
-        <v>0.04216466823944641</v>
+        <v>0.04676392056216969</v>
       </c>
       <c r="F59">
-        <v>0.02155167563689905</v>
+        <v>0.03126094930026637</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2367753477021602</v>
+        <v>-0.2397911770883338</v>
       </c>
       <c r="C60">
-        <v>0.1414260142965379</v>
+        <v>0.004222776617965153</v>
       </c>
       <c r="D60">
-        <v>0.07963759924292468</v>
+        <v>-0.054547362337662</v>
       </c>
       <c r="E60">
-        <v>0.0981799274066896</v>
+        <v>-0.01158185746103085</v>
       </c>
       <c r="F60">
-        <v>-0.04296402745839623</v>
+        <v>0.04614340237749476</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0946018906822696</v>
+        <v>-0.08579082124643773</v>
       </c>
       <c r="C61">
-        <v>0.06434679195703974</v>
+        <v>-0.01511426695268505</v>
       </c>
       <c r="D61">
-        <v>0.07303764641983504</v>
+        <v>-0.1061010441054758</v>
       </c>
       <c r="E61">
-        <v>-0.1410817471507849</v>
+        <v>-0.0333491810280314</v>
       </c>
       <c r="F61">
-        <v>0.02707777459350234</v>
+        <v>-0.02594502754217658</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1281542888886537</v>
+        <v>-0.1685801712569883</v>
       </c>
       <c r="C62">
-        <v>0.07357228660741673</v>
+        <v>-0.01703234260681488</v>
       </c>
       <c r="D62">
-        <v>0.002976352933821749</v>
+        <v>-0.01391833254084339</v>
       </c>
       <c r="E62">
-        <v>0.03471519185521744</v>
+        <v>-0.03817371894866392</v>
       </c>
       <c r="F62">
-        <v>-0.07536172658594753</v>
+        <v>-0.01123177816712563</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04463376821931901</v>
+        <v>-0.04281755725054587</v>
       </c>
       <c r="C63">
-        <v>0.01808330069067253</v>
+        <v>-0.00454913253157899</v>
       </c>
       <c r="D63">
-        <v>0.008768816174941158</v>
+        <v>-0.04610547597978883</v>
       </c>
       <c r="E63">
-        <v>-0.06991370506188636</v>
+        <v>-0.01421563158320764</v>
       </c>
       <c r="F63">
-        <v>0.01452239430054906</v>
+        <v>-0.01149842931769072</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09837856948477841</v>
+        <v>-0.1121322439942576</v>
       </c>
       <c r="C64">
-        <v>0.06036957881835565</v>
+        <v>-0.01217277504750769</v>
       </c>
       <c r="D64">
-        <v>0.0001592181957183496</v>
+        <v>-0.03811059142226136</v>
       </c>
       <c r="E64">
-        <v>-0.08048880742786094</v>
+        <v>-0.01886920038288347</v>
       </c>
       <c r="F64">
-        <v>0.002489776187435552</v>
+        <v>-0.01728414333159395</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1203855039782727</v>
+        <v>-0.1429388717810218</v>
       </c>
       <c r="C65">
-        <v>0.04139060360674493</v>
+        <v>-0.03081259872821831</v>
       </c>
       <c r="D65">
-        <v>0.01698563229107638</v>
+        <v>0.04658251560728288</v>
       </c>
       <c r="E65">
-        <v>-0.09387991679850136</v>
+        <v>-0.003172159006515712</v>
       </c>
       <c r="F65">
-        <v>0.02168257715661122</v>
+        <v>-0.04210433601807621</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1127827633183512</v>
+        <v>-0.1342113580840041</v>
       </c>
       <c r="C66">
-        <v>0.1183817040301334</v>
+        <v>-0.01734903105326997</v>
       </c>
       <c r="D66">
-        <v>0.1271945100325299</v>
+        <v>-0.1331901090968809</v>
       </c>
       <c r="E66">
-        <v>-0.1677225304112971</v>
+        <v>-0.0586013182673969</v>
       </c>
       <c r="F66">
-        <v>-0.02760059096282906</v>
+        <v>-0.04464031735213805</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07987915703877477</v>
+        <v>-0.06543701926814344</v>
       </c>
       <c r="C67">
-        <v>0.06579577474090358</v>
+        <v>-0.004458920316914524</v>
       </c>
       <c r="D67">
-        <v>-0.0274509841905</v>
+        <v>-0.05578005995408102</v>
       </c>
       <c r="E67">
-        <v>0.03326199545978478</v>
+        <v>-0.01919601829470797</v>
       </c>
       <c r="F67">
-        <v>-0.1477490000864678</v>
+        <v>0.04337302055204321</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1294493407306871</v>
+        <v>-0.1112258047074716</v>
       </c>
       <c r="C68">
-        <v>-0.2720869495564495</v>
+        <v>-0.02156662157924949</v>
       </c>
       <c r="D68">
-        <v>0.01244530131128216</v>
+        <v>0.2726607443380376</v>
       </c>
       <c r="E68">
-        <v>-0.04570562746003218</v>
+        <v>0.08470060444769412</v>
       </c>
       <c r="F68">
-        <v>0.007377802874546513</v>
+        <v>-0.05072780655303601</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0442318949107464</v>
+        <v>-0.04054782766326318</v>
       </c>
       <c r="C69">
-        <v>0.01881210977417691</v>
+        <v>-0.001174562118617064</v>
       </c>
       <c r="D69">
-        <v>-0.007590569669693413</v>
+        <v>-0.009011852669513425</v>
       </c>
       <c r="E69">
-        <v>-0.02607335797752436</v>
+        <v>-0.02606466878973265</v>
       </c>
       <c r="F69">
-        <v>-0.03525965619534282</v>
+        <v>0.01620874881961017</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05144754090782427</v>
+        <v>-0.0641453150979274</v>
       </c>
       <c r="C70">
-        <v>0.05586119911373278</v>
+        <v>0.02697077138393309</v>
       </c>
       <c r="D70">
-        <v>0.02443620815812104</v>
+        <v>-0.01149363904714562</v>
       </c>
       <c r="E70">
-        <v>-0.0594556702280298</v>
+        <v>0.04382140914297291</v>
       </c>
       <c r="F70">
-        <v>0.01905637169828827</v>
+        <v>0.3376542463121315</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1495801875438824</v>
+        <v>-0.1300700124543529</v>
       </c>
       <c r="C71">
-        <v>-0.2773025984709331</v>
+        <v>-0.02534358892951163</v>
       </c>
       <c r="D71">
-        <v>0.01046966918915973</v>
+        <v>0.2882509642593534</v>
       </c>
       <c r="E71">
-        <v>-0.06090502653352799</v>
+        <v>0.09250274488176027</v>
       </c>
       <c r="F71">
-        <v>0.004193321938121333</v>
+        <v>-0.05275973992048225</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1244348650460716</v>
+        <v>-0.1383175099392368</v>
       </c>
       <c r="C72">
-        <v>0.0219625118605741</v>
+        <v>-0.02387607826977417</v>
       </c>
       <c r="D72">
-        <v>0.004856659100988021</v>
+        <v>-0.007008227635471439</v>
       </c>
       <c r="E72">
-        <v>-0.0564439072756666</v>
+        <v>-0.04171994210126881</v>
       </c>
       <c r="F72">
-        <v>-0.02829140611996512</v>
+        <v>-0.02518581922461473</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2226214242518821</v>
+        <v>-0.2091730453133189</v>
       </c>
       <c r="C73">
-        <v>0.1192557086270999</v>
+        <v>-0.01158112042849035</v>
       </c>
       <c r="D73">
-        <v>0.1482602687308031</v>
+        <v>-0.02351934417569471</v>
       </c>
       <c r="E73">
-        <v>0.389551222050597</v>
+        <v>-0.06995681059277309</v>
       </c>
       <c r="F73">
-        <v>-0.3301083055259013</v>
+        <v>-0.02232121340670888</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08669276796605761</v>
+        <v>-0.09356503840309249</v>
       </c>
       <c r="C74">
-        <v>0.08600822585381884</v>
+        <v>-0.01177298240766608</v>
       </c>
       <c r="D74">
-        <v>0.008326081692368157</v>
+        <v>-0.02668178615056814</v>
       </c>
       <c r="E74">
-        <v>0.002030558308651181</v>
+        <v>-0.05118918400301153</v>
       </c>
       <c r="F74">
-        <v>-0.1036265352425866</v>
+        <v>-0.04032882591324949</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08704039814914963</v>
+        <v>-0.1300069472531141</v>
       </c>
       <c r="C75">
-        <v>0.0634118894263013</v>
+        <v>-0.02609336477283218</v>
       </c>
       <c r="D75">
-        <v>0.003621461515615021</v>
+        <v>-0.0368891290754462</v>
       </c>
       <c r="E75">
-        <v>0.0006669460752474377</v>
+        <v>-0.05910678968014865</v>
       </c>
       <c r="F75">
-        <v>-0.01017537969454114</v>
+        <v>-0.006451246276447957</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0737909506351991</v>
+        <v>-0.008738462139469492</v>
       </c>
       <c r="C76">
-        <v>0.07346049082429633</v>
+        <v>-0.001938184134903575</v>
       </c>
       <c r="D76">
-        <v>-0.007202402488451057</v>
+        <v>-0.003646917306615655</v>
       </c>
       <c r="E76">
-        <v>0.04442988373183651</v>
+        <v>-0.008998322625733818</v>
       </c>
       <c r="F76">
-        <v>-0.04336146152086349</v>
+        <v>-0.002687260715600227</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06673297292856827</v>
+        <v>-0.08079259115317985</v>
       </c>
       <c r="C77">
-        <v>0.01855157028754721</v>
+        <v>-0.01200069991275159</v>
       </c>
       <c r="D77">
-        <v>0.03636382775958461</v>
+        <v>-0.100215960436022</v>
       </c>
       <c r="E77">
-        <v>-0.1578799633672823</v>
+        <v>-0.03092956749558031</v>
       </c>
       <c r="F77">
-        <v>0.1631526181540845</v>
+        <v>-0.0375723589621478</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1780781223813999</v>
+        <v>-0.1101465948190077</v>
       </c>
       <c r="C78">
-        <v>0.1602063027330312</v>
+        <v>-0.04450863758725103</v>
       </c>
       <c r="D78">
-        <v>-0.1706043742869935</v>
+        <v>-0.1174193116896535</v>
       </c>
       <c r="E78">
-        <v>0.2637739897232081</v>
+        <v>-0.09036041679989332</v>
       </c>
       <c r="F78">
-        <v>0.5889936033223602</v>
+        <v>-0.07499988294343839</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1295470627506724</v>
+        <v>-0.1623196230091557</v>
       </c>
       <c r="C79">
-        <v>0.07827134166449</v>
+        <v>-0.02004959989064322</v>
       </c>
       <c r="D79">
-        <v>-0.006103458045328667</v>
+        <v>-0.02170407786950948</v>
       </c>
       <c r="E79">
-        <v>0.00121803194869776</v>
+        <v>-0.04880875126309588</v>
       </c>
       <c r="F79">
-        <v>-0.04326711383475668</v>
+        <v>-0.004502480295601094</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06785296541636925</v>
+        <v>-0.08016789887131018</v>
       </c>
       <c r="C80">
-        <v>0.04497000203966027</v>
+        <v>0.001002384267935639</v>
       </c>
       <c r="D80">
-        <v>0.07644770648169019</v>
+        <v>-0.05773640144470859</v>
       </c>
       <c r="E80">
-        <v>-0.05901430892163643</v>
+        <v>-0.02826873982844801</v>
       </c>
       <c r="F80">
-        <v>-0.04253223490111446</v>
+        <v>0.009792318065966789</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1228354048142626</v>
+        <v>-0.1220914414103286</v>
       </c>
       <c r="C81">
-        <v>0.05147981758323613</v>
+        <v>-0.02970805478319341</v>
       </c>
       <c r="D81">
-        <v>-0.01105582422713447</v>
+        <v>-0.02560031644994496</v>
       </c>
       <c r="E81">
-        <v>-0.05981667842775392</v>
+        <v>-0.05852774426680721</v>
       </c>
       <c r="F81">
-        <v>-0.01540042728965384</v>
+        <v>0.004776718398399567</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1207549955869826</v>
+        <v>-0.1622105822153193</v>
       </c>
       <c r="C82">
-        <v>0.05943345790430362</v>
+        <v>-0.02042378546159017</v>
       </c>
       <c r="D82">
-        <v>0.008650010404127047</v>
+        <v>-0.02084402483160439</v>
       </c>
       <c r="E82">
-        <v>-0.02626004808176077</v>
+        <v>-0.03486873577769495</v>
       </c>
       <c r="F82">
-        <v>-0.1013403201777247</v>
+        <v>-0.05088685850088406</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08548727037394652</v>
+        <v>-0.06654611197442795</v>
       </c>
       <c r="C83">
-        <v>0.08183336226614203</v>
+        <v>-0.004209328830544871</v>
       </c>
       <c r="D83">
-        <v>0.01157267066823829</v>
+        <v>-0.04712182605283573</v>
       </c>
       <c r="E83">
-        <v>-0.06193146442135492</v>
+        <v>-0.003687437367996303</v>
       </c>
       <c r="F83">
-        <v>-0.0940870966615522</v>
+        <v>0.03050566991583228</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.049433234476975</v>
+        <v>-0.06079697562275015</v>
       </c>
       <c r="C84">
-        <v>-0.05690604382116678</v>
+        <v>-0.01203551874771431</v>
       </c>
       <c r="D84">
-        <v>0.04204883300441463</v>
+        <v>-0.05964996229571619</v>
       </c>
       <c r="E84">
-        <v>0.060188210900846</v>
+        <v>0.003963443670450333</v>
       </c>
       <c r="F84">
-        <v>0.2074995422958562</v>
+        <v>-0.01520751690050843</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1183786449404909</v>
+        <v>-0.1375858392612153</v>
       </c>
       <c r="C85">
-        <v>0.05253674991257204</v>
+        <v>-0.02543181789717111</v>
       </c>
       <c r="D85">
-        <v>0.005217459283997287</v>
+        <v>-0.018251067509818</v>
       </c>
       <c r="E85">
-        <v>0.0005257814921742679</v>
+        <v>-0.04039568664967771</v>
       </c>
       <c r="F85">
-        <v>-0.0584864511133471</v>
+        <v>-0.03904550674645477</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09336007249577467</v>
+        <v>-0.1006379654065268</v>
       </c>
       <c r="C86">
-        <v>0.01339564471318338</v>
+        <v>0.006873129202702092</v>
       </c>
       <c r="D86">
-        <v>-0.02345769866213227</v>
+        <v>-0.01403862866344631</v>
       </c>
       <c r="E86">
-        <v>0.3625239860615655</v>
+        <v>-0.1324803124235971</v>
       </c>
       <c r="F86">
-        <v>0.3851301439180015</v>
+        <v>0.8317297316908183</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1248834821749726</v>
+        <v>-0.1012249089168085</v>
       </c>
       <c r="C87">
-        <v>0.06732604897244648</v>
+        <v>-0.02638453030674774</v>
       </c>
       <c r="D87">
-        <v>-0.01080588468559716</v>
+        <v>-0.07065534911871987</v>
       </c>
       <c r="E87">
-        <v>-0.06516633211739714</v>
+        <v>0.05413985842339013</v>
       </c>
       <c r="F87">
-        <v>0.04319453055448207</v>
+        <v>-0.09387055669706283</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05792380585098308</v>
+        <v>-0.06151989511619558</v>
       </c>
       <c r="C88">
-        <v>0.06226731410886883</v>
+        <v>-0.003334579094514029</v>
       </c>
       <c r="D88">
-        <v>0.03397632421133941</v>
+        <v>-0.05597352237147456</v>
       </c>
       <c r="E88">
-        <v>-0.02512056555718218</v>
+        <v>-0.02578694256012375</v>
       </c>
       <c r="F88">
-        <v>-0.01920363140271368</v>
+        <v>-0.006398842663142445</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2308043243180026</v>
+        <v>-0.1321433984349522</v>
       </c>
       <c r="C89">
-        <v>-0.3685629408543863</v>
+        <v>-0.004328084154609921</v>
       </c>
       <c r="D89">
-        <v>-0.05496418998183476</v>
+        <v>0.2735508765209096</v>
       </c>
       <c r="E89">
-        <v>0.03087248548616018</v>
+        <v>0.09067776563973988</v>
       </c>
       <c r="F89">
-        <v>0.0138165937600806</v>
+        <v>-0.0339966976399308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1584905597461472</v>
+        <v>-0.1422629050786052</v>
       </c>
       <c r="C90">
-        <v>-0.2571213959864888</v>
+        <v>-0.02087596682495573</v>
       </c>
       <c r="D90">
-        <v>0.01015593348091388</v>
+        <v>0.2736046560460006</v>
       </c>
       <c r="E90">
-        <v>-0.02040950279881437</v>
+        <v>0.1029888577160859</v>
       </c>
       <c r="F90">
-        <v>-0.01602905796258717</v>
+        <v>-0.03883000779200271</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07505862574191009</v>
+        <v>-0.1167905383219082</v>
       </c>
       <c r="C91">
-        <v>0.05997208253523365</v>
+        <v>-0.01605444143664689</v>
       </c>
       <c r="D91">
-        <v>-0.005079076623434596</v>
+        <v>0.0006200123734078258</v>
       </c>
       <c r="E91">
-        <v>0.018579093742012</v>
+        <v>-0.05909092442457706</v>
       </c>
       <c r="F91">
-        <v>-0.003899121983332852</v>
+        <v>0.03222959449599868</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1686140191724298</v>
+        <v>-0.1445815319537298</v>
       </c>
       <c r="C92">
-        <v>-0.2940186975062848</v>
+        <v>-0.01223196910358954</v>
       </c>
       <c r="D92">
-        <v>-0.0344357602146571</v>
+        <v>0.3081059404862675</v>
       </c>
       <c r="E92">
-        <v>-0.04166058750533708</v>
+        <v>0.09913061862852338</v>
       </c>
       <c r="F92">
-        <v>0.039017322629484</v>
+        <v>-0.02998900800805233</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1723224021022026</v>
+        <v>-0.1464376822171607</v>
       </c>
       <c r="C93">
-        <v>-0.3054377503805996</v>
+        <v>-0.01756727161309545</v>
       </c>
       <c r="D93">
-        <v>0.03716140645197345</v>
+        <v>0.2788320479941743</v>
       </c>
       <c r="E93">
-        <v>-0.01772372565766005</v>
+        <v>0.06995473018941317</v>
       </c>
       <c r="F93">
-        <v>0.01444965268937959</v>
+        <v>-0.03053965643603672</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1142043648650739</v>
+        <v>-0.1335533087581474</v>
       </c>
       <c r="C94">
-        <v>0.08485413344525988</v>
+        <v>-0.02353012314566462</v>
       </c>
       <c r="D94">
-        <v>-0.009240697061614846</v>
+        <v>-0.04991669167569172</v>
       </c>
       <c r="E94">
-        <v>0.01505907829757136</v>
+        <v>-0.0615398361712818</v>
       </c>
       <c r="F94">
-        <v>-0.04504115637252454</v>
+        <v>-0.02468837955979108</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1416808900173332</v>
+        <v>-0.1273450235050733</v>
       </c>
       <c r="C95">
-        <v>0.06747105459603929</v>
+        <v>-0.006369991523104599</v>
       </c>
       <c r="D95">
-        <v>-0.01242897862338014</v>
+        <v>-0.08927525811175303</v>
       </c>
       <c r="E95">
-        <v>-0.02249269668064833</v>
+        <v>-0.04052436172706964</v>
       </c>
       <c r="F95">
-        <v>0.136897874214988</v>
+        <v>0.009102889002105007</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09530922432441782</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893571700963205</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01376683219062625</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06024311679577374</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05043443372910938</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1164570306508382</v>
+        <v>-0.1879869684592458</v>
       </c>
       <c r="C97">
-        <v>-0.02019785428958223</v>
+        <v>0.01238602373186054</v>
       </c>
       <c r="D97">
-        <v>-0.01544873472763011</v>
+        <v>0.01276938471358286</v>
       </c>
       <c r="E97">
-        <v>-0.3235731895393684</v>
+        <v>-0.01366837972525388</v>
       </c>
       <c r="F97">
-        <v>-0.08907815607475296</v>
+        <v>0.1630980157280351</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2522238922518387</v>
+        <v>-0.2070643357037574</v>
       </c>
       <c r="C98">
-        <v>0.1141905388120805</v>
+        <v>-0.007217109277863011</v>
       </c>
       <c r="D98">
-        <v>-0.05952666713346211</v>
+        <v>-0.01434525763631526</v>
       </c>
       <c r="E98">
-        <v>0.2120246887274117</v>
+        <v>0.08797330083190631</v>
       </c>
       <c r="F98">
-        <v>-0.1335627797462479</v>
+        <v>0.1414809337332086</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07234931129149166</v>
+        <v>-0.05782302500650253</v>
       </c>
       <c r="C99">
-        <v>0.05600202849058745</v>
+        <v>0.002992892912976336</v>
       </c>
       <c r="D99">
-        <v>-0.01578869667937176</v>
+        <v>-0.03443808109642522</v>
       </c>
       <c r="E99">
-        <v>0.04146496195756757</v>
+        <v>-0.02667276752562421</v>
       </c>
       <c r="F99">
-        <v>-0.02546994734506319</v>
+        <v>-0.004668362806764768</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1225910662449713</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04766494858178905</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3219397681679608</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.906744072334977</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.06115730925090762</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04032241694314674</v>
+        <v>-0.027039400710608</v>
       </c>
       <c r="C101">
-        <v>0.02389893714054847</v>
+        <v>-0.009180669890846566</v>
       </c>
       <c r="D101">
-        <v>0.004926429597996374</v>
+        <v>-0.02746081681412701</v>
       </c>
       <c r="E101">
-        <v>-0.03383994916437531</v>
+        <v>-0.008067332564172245</v>
       </c>
       <c r="F101">
-        <v>0.0350636776125536</v>
+        <v>0.008398923402448719</v>
       </c>
     </row>
     <row r="102" spans="1:6">
